--- a/Recycling/Met_rec/metrec_Min_full_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>55258.16468093194</v>
+        <v>55258.16468093192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>90949.05693803651</v>
+        <v>90949.05693803652</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>222769.1412828043</v>
+        <v>222769.1412828042</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>827792.0901816024</v>
+        <v>827792.0901816025</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1649624.326648426</v>
+        <v>1649624.326648425</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3220268.906713159</v>
+        <v>3220268.906713158</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6207,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2751427.116686262</v>
+        <v>2751427.116686261</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3358437.817936323</v>
+        <v>3358437.817936322</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3395075.375635046</v>
+        <v>3395075.375635045</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_full_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full_Max.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5294835.641624736</v>
+        <v>5294835.641624737</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4039.543344176866</v>
+        <v>4039.543344176865</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6816.370821313692</v>
+        <v>6816.370821313691</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3804,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>45912.66242044823</v>
+        <v>45912.66242044822</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>43167.02410688577</v>
+        <v>43167.02410688576</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>586637.5487815922</v>
+        <v>586637.5487815923</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7156,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5659459.475008062</v>
+        <v>5659459.475008061</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2399315.829043891</v>
+        <v>2399315.82904389</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7608,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2114795.903629282</v>
+        <v>2114795.903629281</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3162153.447654813</v>
+        <v>3162153.447654812</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3385841.387753271</v>
+        <v>3385841.38775327</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8584,7 +8584,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>10453415.67966689</v>
+        <v>10453415.67966688</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3735021.499499625</v>
+        <v>3735021.499499626</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2963376.574882163</v>
+        <v>2963376.574882162</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8904,7 +8904,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7266873.905251809</v>
+        <v>7266873.90525181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9036,7 +9036,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3182647.365006841</v>
+        <v>3182647.36500684</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3994007.19239808</v>
+        <v>3994007.192398081</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3759035.855840488</v>
+        <v>3759035.855840489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10128,7 +10128,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6775773.240361919</v>
+        <v>6775773.240361918</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11892,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2279997.929883875</v>
+        <v>2279997.929883874</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11964,7 +11964,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5894231.404222584</v>
+        <v>5894231.404222585</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12096,7 +12096,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2285773.90644015</v>
+        <v>2285773.906440149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3371146.607541243</v>
+        <v>3371146.607541244</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12576,7 +12576,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6168909.399751229</v>
+        <v>6168909.39975123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3002614.994281755</v>
+        <v>3002614.994281754</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4251160.591158711</v>
+        <v>4251160.59115871</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>19295560.94138989</v>
+        <v>19295560.94138988</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2986010.659046546</v>
+        <v>2986010.659046545</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3885249.014450833</v>
+        <v>3885249.014450832</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15316,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>21278034.5543397</v>
+        <v>21278034.55433969</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2858400.243942699</v>
+        <v>2858400.243942698</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4035183.012847419</v>
+        <v>4035183.012847418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6561348.149997406</v>
+        <v>6561348.149997407</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17516,7 +17516,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4801157.501011996</v>
+        <v>4801157.501011997</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3479972.763028569</v>
+        <v>3479972.76302857</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18288,7 +18288,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6374241.015549376</v>
+        <v>6374241.015549375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4798565.627760954</v>
+        <v>4798565.627760953</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18536,7 +18536,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4693739.214264984</v>
+        <v>4693739.214264985</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18988,7 +18988,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>683.2716779047807</v>
+        <v>683.2716779047809</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19308,7 +19308,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5861253.240763212</v>
+        <v>5861253.240763213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19352,7 +19352,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4489563.576242176</v>
+        <v>4489563.576242175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5889139.524753002</v>
+        <v>5889139.524753001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4528861.790147306</v>
+        <v>4528861.790147307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4581149.774811987</v>
+        <v>4581149.774811988</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19848,7 +19848,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3280427.42154031</v>
+        <v>3280427.421540311</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>31620736.24869373</v>
+        <v>31620736.24869372</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20124,7 +20124,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6061034.876757397</v>
+        <v>6061034.876757399</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4775733.843586601</v>
+        <v>4775733.843586602</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>32686014.08183466</v>
+        <v>32686014.08183465</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20620,7 +20620,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>33211466.75441608</v>
+        <v>33211466.75441607</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20664,7 +20664,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3673561.57206174</v>
+        <v>3673561.572061741</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20736,7 +20736,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6269263.870914698</v>
+        <v>6269263.870914699</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5242143.625702659</v>
+        <v>5242143.62570266</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>34229014.00822664</v>
+        <v>34229014.00822665</v>
       </c>
     </row>
     <row r="13" spans="1:4">
